--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_호남선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CA7B4-4862-4F0A-BA0E-E10BEF1D316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEFFBD-9895-4734-9B80-CF2C2EDDE86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
+    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>MSE</t>
   </si>
@@ -142,6 +143,81 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균오차 및 오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +228,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +256,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,13 +309,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -259,8 +347,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5666,7 +5772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -9446,4 +9552,807 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBC528-60AE-416D-B439-58D4B33504B1}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.58203125" customWidth="1"/>
+    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Forecasting_전체!C2</f>
+        <v>1025955</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Forecasting_전체!D2</f>
+        <v>1009081.25</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3-C3</f>
+        <v>-16873.75</v>
+      </c>
+      <c r="F3" s="17">
+        <f>E3/C3</f>
+        <v>-1.6446871451476917E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Forecasting_주말!C2</f>
+        <v>576373</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Forecasting_주말!D2</f>
+        <v>579916.1875</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
+        <v>3543.1875</v>
+      </c>
+      <c r="J3" s="17">
+        <f>I3/G3</f>
+        <v>6.1473863279508231E-3</v>
+      </c>
+      <c r="K3" s="5">
+        <f>Forecasting_주중!C2</f>
+        <v>449582</v>
+      </c>
+      <c r="L3" s="5">
+        <f>Forecasting_주중!D2</f>
+        <v>477399.59375</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>27817.59375</v>
+      </c>
+      <c r="N3" s="17">
+        <f>M3/K3</f>
+        <v>6.187434939566086E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Forecasting_전체!C3</f>
+        <v>1088042</v>
+      </c>
+      <c r="D4" s="5">
+        <f>Forecasting_전체!D3</f>
+        <v>978737.6875</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+        <v>-109304.3125</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+        <v>-0.10045964448063585</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Forecasting_주말!C3</f>
+        <v>499815</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Forecasting_주말!D3</f>
+        <v>506871.9375</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+        <v>7056.9375</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+        <v>1.4119099066654662E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Forecasting_주중!C3</f>
+        <v>588227</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Forecasting_주중!D3</f>
+        <v>464952.84375</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+        <v>-123274.15625</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+        <v>-0.20956902054818974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Forecasting_전체!C4</f>
+        <v>1006231</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Forecasting_전체!D4</f>
+        <v>958222.0625</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>-48008.9375</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.7711646232326377E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Forecasting_주말!C4</f>
+        <v>511512</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Forecasting_주말!D4</f>
+        <v>518892.0625</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>7380.0625</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4427936197000266E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Forecasting_주중!C4</f>
+        <v>494719</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Forecasting_주중!D4</f>
+        <v>456251.3125</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>-38467.6875</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="5"/>
+        <v>-7.7756640638423025E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Forecasting_전체!C5</f>
+        <v>954043</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Forecasting_전체!D5</f>
+        <v>927141.9375</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>-26901.0625</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.8196907791367895E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Forecasting_주말!C5</f>
+        <v>495253</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Forecasting_주말!D5</f>
+        <v>471646.125</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>-23606.875</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.7666293793273334E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Forecasting_주중!C5</f>
+        <v>458790</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Forecasting_주중!D5</f>
+        <v>467614.15625</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>8824.15625</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9233540944658775E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Forecasting_전체!C6</f>
+        <v>1003070</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Forecasting_전체!D6</f>
+        <v>931413.8125</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>-71656.1875</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>-7.1436876289790341E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Forecasting_주말!C6</f>
+        <v>454314</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Forecasting_주말!D6</f>
+        <v>403628.1875</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>-50685.8125</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.11156559670184057</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Forecasting_주중!C6</f>
+        <v>548756</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Forecasting_주중!D6</f>
+        <v>467077.6875</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>-81678.3125</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.14884267780215615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Forecasting_전체!C7</f>
+        <v>991399</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Forecasting_전체!D7</f>
+        <v>967818.9375</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>-23580.0625</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.3784634138222856E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Forecasting_주말!C7</f>
+        <v>515497</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Forecasting_주말!D7</f>
+        <v>493055.75</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>-22441.25</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.3533231037232029E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Forecasting_주중!C7</f>
+        <v>475902</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Forecasting_주중!D7</f>
+        <v>471226.5625</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>-4675.4375</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="5"/>
+        <v>-9.824370353560187E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Forecasting_전체!C8</f>
+        <v>1078780</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Forecasting_전체!D8</f>
+        <v>1028504.1875</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>-50275.8125</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.6604323865848458E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Forecasting_주말!C8</f>
+        <v>531268</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Forecasting_주말!D8</f>
+        <v>533519.5</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>2251.5</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
+        <v>4.2379740545261529E-3</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Forecasting_주중!C8</f>
+        <v>547512</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Forecasting_주중!D8</f>
+        <v>487753.90625</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>-59758.09375</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.10914481098131182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Forecasting_전체!C9</f>
+        <v>1045942</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Forecasting_전체!D9</f>
+        <v>1056136.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>10194.5</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>9.7467163571211407E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Forecasting_주말!C9</f>
+        <v>513516</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Forecasting_주말!D9</f>
+        <v>507326.96875</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>-6189.03125</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.2052265654818935E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Forecasting_주중!C9</f>
+        <v>532426</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Forecasting_주중!D9</f>
+        <v>503820.96875</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>-28605.03125</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.3725834669982306E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Forecasting_전체!C10</f>
+        <v>1059829</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Forecasting_전체!D10</f>
+        <v>1046735.875</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>-13093.125</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.2353997673209546E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Forecasting_주말!C10</f>
+        <v>580416</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Forecasting_주말!D10</f>
+        <v>570061.375</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>-10354.625</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.7840006133531813E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Forecasting_주중!C10</f>
+        <v>479413</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Forecasting_주중!D10</f>
+        <v>500971.78125</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>21558.78125</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="5"/>
+        <v>4.4969121091835221E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Forecasting_전체!C11</f>
+        <v>957778</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Forecasting_전체!D11</f>
+        <v>1046905.5625</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>89127.5625</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
+        <v>9.3056598188724318E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Forecasting_주말!C11</f>
+        <v>427738</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Forecasting_주말!D11</f>
+        <v>363174.25</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>-64563.75</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.15094228242522292</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Forecasting_주중!C11</f>
+        <v>530040</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Forecasting_주중!D11</f>
+        <v>500781.65625</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-29258.34375</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.5200256112746211E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Forecasting_전체!C12</f>
+        <v>1012952</v>
+      </c>
+      <c r="D13" s="5">
+        <f>Forecasting_전체!D12</f>
+        <v>1041554</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>28602</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
+        <v>2.8236283654111943E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Forecasting_주말!C12</f>
+        <v>453494</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Forecasting_주말!D12</f>
+        <v>417287.84375</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>-36206.15625</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
+        <v>-7.9838225533303636E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Forecasting_주중!C12</f>
+        <v>559458</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Forecasting_주중!D12</f>
+        <v>505067.75</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>-54390.25</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="5"/>
+        <v>-9.7219541055807587E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Forecasting_전체!C13</f>
+        <v>1013909</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Forecasting_전체!D13</f>
+        <v>1088453.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>74544.5</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
+        <v>7.352188411386032E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>Forecasting_주말!C13</f>
+        <v>583089</v>
+      </c>
+      <c r="H14" s="5">
+        <f>Forecasting_주말!D13</f>
+        <v>471450.84375</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-111638.15625</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.19145989077139167</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Forecasting_주중!C13</f>
+        <v>430820</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Forecasting_주중!D13</f>
+        <v>499237.5</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>68417.5</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.1588076226730421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18">
+        <f>AVERAGE(C3:C14)</f>
+        <v>1019827.5</v>
+      </c>
+      <c r="D15" s="18">
+        <f>AVERAGE(D3:D14)</f>
+        <v>1006725.4427083334</v>
+      </c>
+      <c r="E15" s="18">
+        <f>AVERAGE(E3:E14)</f>
+        <v>-13102.057291666666</v>
+      </c>
+      <c r="F15" s="17">
+        <f>AVERAGE(F3:F14)</f>
+        <v>-1.1869451634088377E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>AVERAGE(G3:G14)</f>
+        <v>511857.08333333331</v>
+      </c>
+      <c r="H15" s="18">
+        <f>AVERAGE(H3:H14)</f>
+        <v>486402.5859375</v>
+      </c>
+      <c r="I15" s="18">
+        <f>AVERAGE(I3:I14)</f>
+        <v>-25454.497395833332</v>
+      </c>
+      <c r="J15" s="17">
+        <f>AVERAGE(J3:J14)</f>
+        <v>-5.1330449700373593E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <f>AVERAGE(K3:K14)</f>
+        <v>507970.41666666669</v>
+      </c>
+      <c r="L15" s="18">
+        <f>AVERAGE(L3:L14)</f>
+        <v>483512.9765625</v>
+      </c>
+      <c r="M15" s="18">
+        <f>AVERAGE(M3:M14)</f>
+        <v>-24457.440104166668</v>
+      </c>
+      <c r="N15" s="17">
+        <f>AVERAGE(N3:N14)</f>
+        <v>-3.9699876504748335E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_호남선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEFFBD-9895-4734-9B80-CF2C2EDDE86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698C3B3-6AF8-4D6F-9C1D-5C4C5FDB8BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
-    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>MSE</t>
   </si>
@@ -143,81 +142,6 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>2024년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균오차 및 오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -228,7 +152,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,15 +180,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,16 +224,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -347,26 +259,8 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1434,13 +1328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1383,7 @@
         <v>3.7420303759980199E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1409,7 @@
         <v>3.7420303759980199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1435,7 @@
         <v>4.6992983641043519E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1461,7 @@
         <v>0.12874801401885291</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1487,7 @@
         <v>0.14596002975795469</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1513,7 @@
         <v>0.171334795884444</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1645,7 +1539,7 @@
         <v>0.1619607538712145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1565,7 @@
         <v>0.18317207749905129</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1591,7 @@
         <v>0.22909851515675211</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1738,9 +1632,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -1822,7 +1716,7 @@
         <v>978742.3125</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -1863,7 +1757,7 @@
         <v>498976.71875</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -1904,7 +1798,7 @@
         <v>358632.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -1945,7 +1839,7 @@
         <v>488102.65625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -1986,7 +1880,7 @@
         <v>668385</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -2027,7 +1921,7 @@
         <v>702902</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -2068,7 +1962,7 @@
         <v>595609.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -2109,7 +2003,7 @@
         <v>631294.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -2150,7 +2044,7 @@
         <v>490118.84375</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -2191,7 +2085,7 @@
         <v>671171.625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -2232,7 +2126,7 @@
         <v>746789.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -2273,7 +2167,7 @@
         <v>568543.125</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -2314,7 +2208,7 @@
         <v>596277.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -2355,7 +2249,7 @@
         <v>548571.125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -2396,7 +2290,7 @@
         <v>656260.4375</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -2437,7 +2331,7 @@
         <v>681252.75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -2478,7 +2372,7 @@
         <v>717279.25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -2519,7 +2413,7 @@
         <v>757910.0625</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -2560,7 +2454,7 @@
         <v>736079.6875</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -2601,7 +2495,7 @@
         <v>655269</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -2642,7 +2536,7 @@
         <v>664239.875</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -2683,7 +2577,7 @@
         <v>849522.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -2724,7 +2618,7 @@
         <v>875483.25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -2765,7 +2659,7 @@
         <v>778145.6875</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -2806,7 +2700,7 @@
         <v>607685.25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -2847,7 +2741,7 @@
         <v>590166.375</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -2888,7 +2782,7 @@
         <v>698943.875</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -2929,7 +2823,7 @@
         <v>849310.625</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -2970,7 +2864,7 @@
         <v>932656.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3011,7 +2905,7 @@
         <v>924563.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -3052,7 +2946,7 @@
         <v>895153.3125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -3093,7 +2987,7 @@
         <v>955367.375</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -3149,9 +3043,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3200,7 +3094,7 @@
         <v>3.0686618585381919E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3226,7 +3120,7 @@
         <v>3.9294472750504822E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +3146,7 @@
         <v>5.4500937612851061E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3172,7 @@
         <v>4.7796315736062953E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3304,7 +3198,7 @@
         <v>4.8271964653102878E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3330,7 +3224,7 @@
         <v>6.5409861461708213E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3250,7 @@
         <v>7.8549644891996076E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3382,7 +3276,7 @@
         <v>0.1098298940090849</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3408,7 +3302,7 @@
         <v>0.22494586385120161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3434,7 +3328,7 @@
         <v>0.22862391460227771</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3460,7 +3354,7 @@
         <v>0.23801826089556749</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3486,7 +3380,7 @@
         <v>0.2417150626337585</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3512,7 +3406,7 @@
         <v>1.1699109787055271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3553,9 +3447,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3608,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -3661,7 +3555,7 @@
         <v>337077.34375</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -3714,7 +3608,7 @@
         <v>811160.4375</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -3767,7 +3661,7 @@
         <v>591762.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -3820,7 +3714,7 @@
         <v>6293756.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -3873,7 +3767,7 @@
         <v>7016852</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -3926,7 +3820,7 @@
         <v>6707618</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -3979,7 +3873,7 @@
         <v>6974242.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -4032,7 +3926,7 @@
         <v>6451508</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -4085,7 +3979,7 @@
         <v>7477249</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -4138,7 +4032,7 @@
         <v>13770432</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -4191,7 +4085,7 @@
         <v>13996178</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -4244,7 +4138,7 @@
         <v>14413889</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -4297,7 +4191,7 @@
         <v>14022109</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -4350,7 +4244,7 @@
         <v>14250561</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -4403,7 +4297,7 @@
         <v>14293684</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -4456,7 +4350,7 @@
         <v>14270826</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -4509,7 +4403,7 @@
         <v>13752838</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -4562,7 +4456,7 @@
         <v>14136770</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -4615,7 +4509,7 @@
         <v>13883580</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -4668,7 +4562,7 @@
         <v>14337668</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -4721,7 +4615,7 @@
         <v>14036744</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -4774,7 +4668,7 @@
         <v>13832530</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -4827,7 +4721,7 @@
         <v>13804029</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -4880,7 +4774,7 @@
         <v>14463118</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -4933,7 +4827,7 @@
         <v>13776442</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -4986,7 +4880,7 @@
         <v>14350575</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -5039,7 +4933,7 @@
         <v>14457006</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -5092,7 +4986,7 @@
         <v>14299052</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -5145,7 +5039,7 @@
         <v>14242579</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -5198,7 +5092,7 @@
         <v>14232741</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -5251,7 +5145,7 @@
         <v>15302782</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -5304,7 +5198,7 @@
         <v>15782840</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -5372,9 +5266,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5423,7 +5317,7 @@
         <v>6.9815495017041942E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +5343,7 @@
         <v>0.10211301084584511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5475,7 +5369,7 @@
         <v>0.1021191120996993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5501,7 +5395,7 @@
         <v>0.14464006071301611</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5527,7 +5421,7 @@
         <v>0.20218213465459309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5553,7 +5447,7 @@
         <v>0.20316882968616901</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5579,7 +5473,7 @@
         <v>0.2140989004572674</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -5605,7 +5499,7 @@
         <v>0.2132292689004652</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5631,7 +5525,7 @@
         <v>0.21005207068823731</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5551,7 @@
         <v>0.23723901717235349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5683,7 +5577,7 @@
         <v>0.23499347930200901</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5709,7 +5603,7 @@
         <v>0.25273092658044688</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5735,7 +5629,7 @@
         <v>0.26651037616841128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5776,9 +5670,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5831,7 +5725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -5884,7 +5778,7 @@
         <v>246777.09375</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -5937,7 +5831,7 @@
         <v>372676.40625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -5990,7 +5884,7 @@
         <v>863965.375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -6043,7 +5937,7 @@
         <v>268612.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -6096,7 +5990,7 @@
         <v>378427.46875</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -6149,7 +6043,7 @@
         <v>505613.9375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -6202,7 +6096,7 @@
         <v>503999.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -6255,7 +6149,7 @@
         <v>2006279.375</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -6308,7 +6202,7 @@
         <v>1150043.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -6361,7 +6255,7 @@
         <v>56070.48046875</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -6414,7 +6308,7 @@
         <v>658969.875</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -6467,7 +6361,7 @@
         <v>707790.3125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -6520,7 +6414,7 @@
         <v>1005523.375</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -6573,7 +6467,7 @@
         <v>672978.125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -6626,7 +6520,7 @@
         <v>1160284.625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -6679,7 +6573,7 @@
         <v>1792456.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -6732,7 +6626,7 @@
         <v>757105.75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -6785,7 +6679,7 @@
         <v>-77702.453125</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -6838,7 +6732,7 @@
         <v>580482.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -6891,7 +6785,7 @@
         <v>2219939.25</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -6944,7 +6838,7 @@
         <v>-836511.5625</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -6997,7 +6891,7 @@
         <v>1436494.125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -7050,7 +6944,7 @@
         <v>1434763.75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -7103,7 +6997,7 @@
         <v>1066647.125</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -7156,7 +7050,7 @@
         <v>841202</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -7209,7 +7103,7 @@
         <v>2181454.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -7262,7 +7156,7 @@
         <v>166318.859375</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -7315,7 +7209,7 @@
         <v>219854.59375</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -7368,7 +7262,7 @@
         <v>1036207.25</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -7421,7 +7315,7 @@
         <v>554329.875</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -7474,7 +7368,7 @@
         <v>1420566.125</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -7527,7 +7421,7 @@
         <v>-656444.125</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -7595,15 +7489,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
@@ -7620,7 +7514,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -7656,7 +7550,7 @@
         <v>NBEATS</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -7694,7 +7588,7 @@
         <v>477399.59375</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -7732,7 +7626,7 @@
         <v>464952.84375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -7770,7 +7664,7 @@
         <v>456251.3125</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -7808,7 +7702,7 @@
         <v>467614.15625</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>31</v>
       </c>
@@ -7846,7 +7740,7 @@
         <v>467077.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -7884,7 +7778,7 @@
         <v>471226.5625</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -7922,7 +7816,7 @@
         <v>487753.90625</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -7960,7 +7854,7 @@
         <v>503820.96875</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -7998,7 +7892,7 @@
         <v>500971.78125</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -8036,7 +7930,7 @@
         <v>500781.65625</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>29</v>
       </c>
@@ -8092,7 +7986,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>31</v>
       </c>
@@ -8152,7 +8046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>30</v>
       </c>
@@ -8218,7 +8112,7 @@
         <v>29153.909722222223</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>31</v>
       </c>
@@ -8284,7 +8178,7 @@
         <v>29573.604166666668</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8350,7 +8244,7 @@
         <v>32824.703125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8416,7 +8310,7 @@
         <v>28287.378289473683</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8482,7 +8376,7 @@
         <v>32177.047794117647</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -8548,7 +8442,7 @@
         <v>32016.176470588234</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -8614,7 +8508,7 @@
         <v>29131.217105263157</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -8680,7 +8574,7 @@
         <v>34700.703125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -8746,7 +8640,7 @@
         <v>31106.927083333332</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -8812,7 +8706,7 @@
         <v>32055.440972222223</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -8878,7 +8772,7 @@
         <v>36894.57421875</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -8944,7 +8838,7 @@
         <v>34900.783088235294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9010,7 +8904,7 @@
         <v>33001.128472222219</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9076,7 +8970,7 @@
         <v>35829.356617647056</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9142,7 +9036,7 @@
         <v>36390.301470588238</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9208,7 +9102,7 @@
         <v>31970.74342105263</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9274,7 +9168,7 @@
         <v>38881.81640625</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9340,7 +9234,7 @@
         <v>34889.878472222219</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -9406,7 +9300,7 @@
         <v>34822.25</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -9472,7 +9366,7 @@
         <v>38819.99609375</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -9552,807 +9446,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBC528-60AE-416D-B439-58D4B33504B1}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5">
-        <f>Forecasting_전체!C2</f>
-        <v>1025955</v>
-      </c>
-      <c r="D3" s="5">
-        <f>Forecasting_전체!D2</f>
-        <v>1009081.25</v>
-      </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
-        <v>-16873.75</v>
-      </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
-        <v>-1.6446871451476917E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>Forecasting_주말!C2</f>
-        <v>576373</v>
-      </c>
-      <c r="H3" s="5">
-        <f>Forecasting_주말!D2</f>
-        <v>579916.1875</v>
-      </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
-        <v>3543.1875</v>
-      </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
-        <v>6.1473863279508231E-3</v>
-      </c>
-      <c r="K3" s="5">
-        <f>Forecasting_주중!C2</f>
-        <v>449582</v>
-      </c>
-      <c r="L3" s="5">
-        <f>Forecasting_주중!D2</f>
-        <v>477399.59375</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
-        <v>27817.59375</v>
-      </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
-        <v>6.187434939566086E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5">
-        <f>Forecasting_전체!C3</f>
-        <v>1088042</v>
-      </c>
-      <c r="D4" s="5">
-        <f>Forecasting_전체!D3</f>
-        <v>978737.6875</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
-        <v>-109304.3125</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
-        <v>-0.10045964448063585</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Forecasting_주말!C3</f>
-        <v>499815</v>
-      </c>
-      <c r="H4" s="5">
-        <f>Forecasting_주말!D3</f>
-        <v>506871.9375</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
-        <v>7056.9375</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
-        <v>1.4119099066654662E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <f>Forecasting_주중!C3</f>
-        <v>588227</v>
-      </c>
-      <c r="L4" s="5">
-        <f>Forecasting_주중!D3</f>
-        <v>464952.84375</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
-        <v>-123274.15625</v>
-      </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
-        <v>-0.20956902054818974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5">
-        <f>Forecasting_전체!C4</f>
-        <v>1006231</v>
-      </c>
-      <c r="D5" s="5">
-        <f>Forecasting_전체!D4</f>
-        <v>958222.0625</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>-48008.9375</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.7711646232326377E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>Forecasting_주말!C4</f>
-        <v>511512</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Forecasting_주말!D4</f>
-        <v>518892.0625</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>7380.0625</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="3"/>
-        <v>1.4427936197000266E-2</v>
-      </c>
-      <c r="K5" s="5">
-        <f>Forecasting_주중!C4</f>
-        <v>494719</v>
-      </c>
-      <c r="L5" s="5">
-        <f>Forecasting_주중!D4</f>
-        <v>456251.3125</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>-38467.6875</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="5"/>
-        <v>-7.7756640638423025E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5">
-        <f>Forecasting_전체!C5</f>
-        <v>954043</v>
-      </c>
-      <c r="D6" s="5">
-        <f>Forecasting_전체!D5</f>
-        <v>927141.9375</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>-26901.0625</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" si="1"/>
-        <v>-2.8196907791367895E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Forecasting_주말!C5</f>
-        <v>495253</v>
-      </c>
-      <c r="H6" s="5">
-        <f>Forecasting_주말!D5</f>
-        <v>471646.125</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>-23606.875</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="3"/>
-        <v>-4.7666293793273334E-2</v>
-      </c>
-      <c r="K6" s="5">
-        <f>Forecasting_주중!C5</f>
-        <v>458790</v>
-      </c>
-      <c r="L6" s="5">
-        <f>Forecasting_주중!D5</f>
-        <v>467614.15625</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>8824.15625</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="5"/>
-        <v>1.9233540944658775E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5">
-        <f>Forecasting_전체!C6</f>
-        <v>1003070</v>
-      </c>
-      <c r="D7" s="5">
-        <f>Forecasting_전체!D6</f>
-        <v>931413.8125</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>-71656.1875</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="1"/>
-        <v>-7.1436876289790341E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <f>Forecasting_주말!C6</f>
-        <v>454314</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Forecasting_주말!D6</f>
-        <v>403628.1875</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>-50685.8125</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.11156559670184057</v>
-      </c>
-      <c r="K7" s="5">
-        <f>Forecasting_주중!C6</f>
-        <v>548756</v>
-      </c>
-      <c r="L7" s="5">
-        <f>Forecasting_주중!D6</f>
-        <v>467077.6875</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>-81678.3125</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.14884267780215615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5">
-        <f>Forecasting_전체!C7</f>
-        <v>991399</v>
-      </c>
-      <c r="D8" s="5">
-        <f>Forecasting_전체!D7</f>
-        <v>967818.9375</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>-23580.0625</v>
-      </c>
-      <c r="F8" s="17">
-        <f t="shared" si="1"/>
-        <v>-2.3784634138222856E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Forecasting_주말!C7</f>
-        <v>515497</v>
-      </c>
-      <c r="H8" s="5">
-        <f>Forecasting_주말!D7</f>
-        <v>493055.75</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>-22441.25</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="3"/>
-        <v>-4.3533231037232029E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>Forecasting_주중!C7</f>
-        <v>475902</v>
-      </c>
-      <c r="L8" s="5">
-        <f>Forecasting_주중!D7</f>
-        <v>471226.5625</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="4"/>
-        <v>-4675.4375</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="5"/>
-        <v>-9.824370353560187E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
-        <f>Forecasting_전체!C8</f>
-        <v>1078780</v>
-      </c>
-      <c r="D9" s="5">
-        <f>Forecasting_전체!D8</f>
-        <v>1028504.1875</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-50275.8125</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.6604323865848458E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>Forecasting_주말!C8</f>
-        <v>531268</v>
-      </c>
-      <c r="H9" s="5">
-        <f>Forecasting_주말!D8</f>
-        <v>533519.5</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>2251.5</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>4.2379740545261529E-3</v>
-      </c>
-      <c r="K9" s="5">
-        <f>Forecasting_주중!C8</f>
-        <v>547512</v>
-      </c>
-      <c r="L9" s="5">
-        <f>Forecasting_주중!D8</f>
-        <v>487753.90625</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>-59758.09375</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.10914481098131182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5">
-        <f>Forecasting_전체!C9</f>
-        <v>1045942</v>
-      </c>
-      <c r="D10" s="5">
-        <f>Forecasting_전체!D9</f>
-        <v>1056136.5</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>10194.5</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
-        <v>9.7467163571211407E-3</v>
-      </c>
-      <c r="G10" s="5">
-        <f>Forecasting_주말!C9</f>
-        <v>513516</v>
-      </c>
-      <c r="H10" s="5">
-        <f>Forecasting_주말!D9</f>
-        <v>507326.96875</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>-6189.03125</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.2052265654818935E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <f>Forecasting_주중!C9</f>
-        <v>532426</v>
-      </c>
-      <c r="L10" s="5">
-        <f>Forecasting_주중!D9</f>
-        <v>503820.96875</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="4"/>
-        <v>-28605.03125</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="5"/>
-        <v>-5.3725834669982306E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
-        <f>Forecasting_전체!C10</f>
-        <v>1059829</v>
-      </c>
-      <c r="D11" s="5">
-        <f>Forecasting_전체!D10</f>
-        <v>1046735.875</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>-13093.125</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>-1.2353997673209546E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>Forecasting_주말!C10</f>
-        <v>580416</v>
-      </c>
-      <c r="H11" s="5">
-        <f>Forecasting_주말!D10</f>
-        <v>570061.375</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>-10354.625</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.7840006133531813E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <f>Forecasting_주중!C10</f>
-        <v>479413</v>
-      </c>
-      <c r="L11" s="5">
-        <f>Forecasting_주중!D10</f>
-        <v>500971.78125</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="4"/>
-        <v>21558.78125</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="5"/>
-        <v>4.4969121091835221E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5">
-        <f>Forecasting_전체!C11</f>
-        <v>957778</v>
-      </c>
-      <c r="D12" s="5">
-        <f>Forecasting_전체!D11</f>
-        <v>1046905.5625</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>89127.5625</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
-        <v>9.3056598188724318E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <f>Forecasting_주말!C11</f>
-        <v>427738</v>
-      </c>
-      <c r="H12" s="5">
-        <f>Forecasting_주말!D11</f>
-        <v>363174.25</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>-64563.75</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.15094228242522292</v>
-      </c>
-      <c r="K12" s="5">
-        <f>Forecasting_주중!C11</f>
-        <v>530040</v>
-      </c>
-      <c r="L12" s="5">
-        <f>Forecasting_주중!D11</f>
-        <v>500781.65625</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-29258.34375</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="5"/>
-        <v>-5.5200256112746211E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5">
-        <f>Forecasting_전체!C12</f>
-        <v>1012952</v>
-      </c>
-      <c r="D13" s="5">
-        <f>Forecasting_전체!D12</f>
-        <v>1041554</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>28602</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>2.8236283654111943E-2</v>
-      </c>
-      <c r="G13" s="5">
-        <f>Forecasting_주말!C12</f>
-        <v>453494</v>
-      </c>
-      <c r="H13" s="5">
-        <f>Forecasting_주말!D12</f>
-        <v>417287.84375</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>-36206.15625</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>-7.9838225533303636E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <f>Forecasting_주중!C12</f>
-        <v>559458</v>
-      </c>
-      <c r="L13" s="5">
-        <f>Forecasting_주중!D12</f>
-        <v>505067.75</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>-54390.25</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="5"/>
-        <v>-9.7219541055807587E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5">
-        <f>Forecasting_전체!C13</f>
-        <v>1013909</v>
-      </c>
-      <c r="D14" s="5">
-        <f>Forecasting_전체!D13</f>
-        <v>1088453.5</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>74544.5</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>7.352188411386032E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Forecasting_주말!C13</f>
-        <v>583089</v>
-      </c>
-      <c r="H14" s="5">
-        <f>Forecasting_주말!D13</f>
-        <v>471450.84375</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-111638.15625</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.19145989077139167</v>
-      </c>
-      <c r="K14" s="5">
-        <f>Forecasting_주중!C13</f>
-        <v>430820</v>
-      </c>
-      <c r="L14" s="5">
-        <f>Forecasting_주중!D13</f>
-        <v>499237.5</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>68417.5</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="5"/>
-        <v>0.1588076226730421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
-        <v>1019827.5</v>
-      </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
-        <v>1006725.4427083334</v>
-      </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
-        <v>-13102.057291666666</v>
-      </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
-        <v>-1.1869451634088377E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
-        <v>511857.08333333331</v>
-      </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
-        <v>486402.5859375</v>
-      </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
-        <v>-25454.497395833332</v>
-      </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
-        <v>-5.1330449700373593E-2</v>
-      </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
-        <v>507970.41666666669</v>
-      </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
-        <v>483512.9765625</v>
-      </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
-        <v>-24457.440104166668</v>
-      </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
-        <v>-3.9699876504748335E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>